--- a/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/60/Output_4_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3325901.034300575</v>
+        <v>3325901.034300581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.4680064</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500737</v>
+        <v>16052082.4680064</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763106</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177243</v>
+        <v>3940022.790763106</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494247180.596206</v>
+        <v>56687243.12577444</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +667,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C2" t="n">
-        <v>448.0862339500159</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D2" t="n">
         <v>410.3391557398498</v>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D5" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114468717</v>
       </c>
       <c r="E5" t="n">
         <v>404.3632896068686</v>
@@ -916,7 +916,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G5" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
         <v>347.8590406130752</v>
@@ -998,10 +998,10 @@
         <v>322.5970075731406</v>
       </c>
       <c r="H6" t="n">
-        <v>301.8178796392513</v>
+        <v>300.2841796816783</v>
       </c>
       <c r="I6" t="n">
-        <v>107.3959878205679</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H11" t="n">
-        <v>347.8590406130752</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y11" t="n">
-        <v>509.9290883898282</v>
+        <v>511.3174326828064</v>
       </c>
     </row>
     <row r="12">
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>361.0088210686545</v>
       </c>
       <c r="T14" t="n">
-        <v>560.964918411981</v>
+        <v>559.576574119003</v>
       </c>
       <c r="U14" t="n">
         <v>648.751427201877</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S15" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1800,13 +1800,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U17" t="n">
-        <v>647.3630829088994</v>
+        <v>648.751427201877</v>
       </c>
       <c r="V17" t="n">
         <v>629.8510241668239</v>
@@ -1915,7 +1915,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X17" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y17" t="n">
         <v>511.3174326828064</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S18" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T18" t="n">
         <v>392.6911708778912</v>
@@ -2037,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2101,10 +2101,10 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G20" t="n">
-        <v>396.4956611598672</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963203707</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2274,13 +2274,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963200988</v>
+        <v>346.470696320097</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S24" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T24" t="n">
         <v>392.6911708778912</v>
@@ -2511,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>165.2127885434264</v>
+        <v>133.3568653036801</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2629,7 +2629,7 @@
         <v>592.2818334606677</v>
       </c>
       <c r="Y26" t="n">
-        <v>511.3174326828064</v>
+        <v>509.9290883898282</v>
       </c>
     </row>
     <row r="27">
@@ -2897,7 +2897,7 @@
         <v>301.8178796390949</v>
       </c>
       <c r="I30" t="n">
-        <v>108.9296877779845</v>
+        <v>108.929687778141</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>350.6276822440399</v>
+        <v>350.6276822438832</v>
       </c>
       <c r="S30" t="n">
         <v>408.1929150587945</v>
@@ -2985,13 +2985,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C32" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500159</v>
       </c>
       <c r="D32" t="n">
         <v>410.3391557398498</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>359.6204767756762</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T32" t="n">
         <v>560.964918411981</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S33" t="n">
         <v>408.192915058951</v>
@@ -3176,7 +3176,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W33" t="n">
-        <v>430.8394429522557</v>
+        <v>432.3731429098285</v>
       </c>
       <c r="X33" t="n">
         <v>419.8627394453875</v>
@@ -3222,13 +3222,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.470696320097</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3337,7 +3337,7 @@
         <v>638.3734759809475</v>
       </c>
       <c r="X35" t="n">
-        <v>592.2818334606677</v>
+        <v>590.8934891676897</v>
       </c>
       <c r="Y35" t="n">
         <v>511.3174326828064</v>
@@ -3459,16 +3459,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H41" t="n">
         <v>347.8590406130752</v>
@@ -3805,7 +3805,7 @@
         <v>648.751427201877</v>
       </c>
       <c r="V41" t="n">
-        <v>628.4626798738458</v>
+        <v>629.8510241668239</v>
       </c>
       <c r="W41" t="n">
         <v>638.3734759809475</v>
@@ -3933,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>480.6109686625962</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C44" t="n">
         <v>449.4745782429939</v>
@@ -3997,7 +3997,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G44" t="n">
-        <v>397.8840054528454</v>
+        <v>396.4956611598672</v>
       </c>
       <c r="H44" t="n">
         <v>347.8590406130752</v>
@@ -4170,13 +4170,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>25.70923750768745</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4315,46 +4315,46 @@
         <v>2578.759347546128</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>210.3162975291112</v>
+        <v>140.96</v>
       </c>
       <c r="J2" t="n">
-        <v>669.1334430047632</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K2" t="n">
-        <v>1408.776586572602</v>
+        <v>2475.128344611655</v>
       </c>
       <c r="L2" t="n">
-        <v>2326.369309889185</v>
+        <v>3392.721067928238</v>
       </c>
       <c r="M2" t="n">
-        <v>2808.548509402688</v>
+        <v>3874.900267441741</v>
       </c>
       <c r="N2" t="n">
-        <v>3373.59157327536</v>
+        <v>4439.943331314413</v>
       </c>
       <c r="O2" t="n">
-        <v>4283.746456216104</v>
+        <v>5350.098214255157</v>
       </c>
       <c r="P2" t="n">
-        <v>5981.4859376609</v>
+        <v>6185.96554235257</v>
       </c>
       <c r="Q2" t="n">
         <v>7048</v>
@@ -4506,10 +4506,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="N4" t="n">
-        <v>457.4949902104935</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O4" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P4" t="n">
         <v>457.4949902104935</v>
@@ -4555,13 +4555,13 @@
         <v>2124.744622048154</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
         <v>492.3327682960356</v>
@@ -4573,28 +4573,28 @@
         <v>140.96</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.778834695947</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K5" t="n">
-        <v>2475.128344611655</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L5" t="n">
-        <v>3797.935015773446</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M5" t="n">
-        <v>4280.114215286949</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N5" t="n">
-        <v>4845.157279159621</v>
+        <v>3304.235275746249</v>
       </c>
       <c r="O5" t="n">
-        <v>5755.312162100365</v>
+        <v>5028.734971800483</v>
       </c>
       <c r="P5" t="n">
-        <v>6591.179490197778</v>
+        <v>5864.602299897897</v>
       </c>
       <c r="Q5" t="n">
-        <v>7048</v>
+        <v>6931.116362236997</v>
       </c>
       <c r="R5" t="n">
         <v>7048</v>
@@ -4646,7 +4646,7 @@
         <v>554.3073408685043</v>
       </c>
       <c r="H6" t="n">
-        <v>249.4407957783515</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I6" t="n">
         <v>140.96</v>
@@ -4734,19 +4734,19 @@
         <v>290.4466099967136</v>
       </c>
       <c r="K7" t="n">
-        <v>326.8726278290461</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="L7" t="n">
-        <v>326.8726278290461</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M7" t="n">
-        <v>326.8726278290461</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N7" t="n">
-        <v>326.8726278290461</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O7" t="n">
-        <v>457.4949902104935</v>
+        <v>426.6131206966359</v>
       </c>
       <c r="P7" t="n">
         <v>457.4949902104935</v>
@@ -4798,7 +4798,7 @@
         <v>1301.812859071671</v>
       </c>
       <c r="F8" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G8" t="n">
         <v>492.3327682960356</v>
@@ -4816,16 +4816,16 @@
         <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
-        <v>2257.013012360075</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M8" t="n">
-        <v>2739.192211873577</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N8" t="n">
-        <v>3304.235275746249</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O8" t="n">
-        <v>5048.61527574625</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P8" t="n">
         <v>6591.179490197778</v>
@@ -4974,13 +4974,13 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L10" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="M10" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="N10" t="n">
-        <v>426.6131206966359</v>
+        <v>307.8416045893196</v>
       </c>
       <c r="O10" t="n">
         <v>426.6131206966359</v>
@@ -5023,52 +5023,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F11" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G11" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H11" t="n">
         <v>140.96</v>
       </c>
       <c r="I11" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K11" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L11" t="n">
-        <v>2257.013012360075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M11" t="n">
-        <v>2739.192211873577</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N11" t="n">
-        <v>3304.235275746249</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O11" t="n">
-        <v>5048.61527574625</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P11" t="n">
-        <v>5884.482603843663</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q11" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R11" t="n">
         <v>7048</v>
@@ -5092,7 +5092,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="12">
@@ -5211,37 +5211,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L13" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M13" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V13" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W13" t="n">
         <v>140.96</v>
@@ -5260,46 +5260,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C14" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D14" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F14" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G14" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>2739.192211873577</v>
+        <v>2814.780508913348</v>
       </c>
       <c r="N14" t="n">
-        <v>4010.932162100365</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100365</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P14" t="n">
         <v>6591.179490197778</v>
@@ -5314,22 +5314,22 @@
         <v>6683.344625183177</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464005</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542916</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818852</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908803</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5448,37 +5448,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L16" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M16" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V16" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W16" t="n">
         <v>140.96</v>
@@ -5518,28 +5518,28 @@
         <v>140.96</v>
       </c>
       <c r="I17" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J17" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K17" t="n">
-        <v>1339.420289043491</v>
+        <v>1794.645504192963</v>
       </c>
       <c r="L17" t="n">
-        <v>2257.013012360075</v>
+        <v>2712.238227509546</v>
       </c>
       <c r="M17" t="n">
-        <v>2739.192211873577</v>
+        <v>3194.417427023049</v>
       </c>
       <c r="N17" t="n">
-        <v>4235.463726622743</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O17" t="n">
-        <v>5145.618609563487</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P17" t="n">
-        <v>5981.4859376609</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q17" t="n">
         <v>7048</v>
@@ -5554,13 +5554,13 @@
         <v>6116.713394464005</v>
       </c>
       <c r="U17" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V17" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W17" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X17" t="n">
         <v>3583.51196363841</v>
@@ -5624,7 +5624,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S18" t="n">
         <v>5159.222422432123</v>
@@ -5685,28 +5685,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T19" t="n">
         <v>140.96</v>
@@ -5734,22 +5734,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.759347546128</v>
+        <v>2578.759347546405</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048154</v>
+        <v>2124.744622048431</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351336</v>
+        <v>1710.260626351613</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071671</v>
+        <v>1301.812859071948</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342853</v>
+        <v>892.8334361345619</v>
       </c>
       <c r="G20" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003236068</v>
       </c>
       <c r="H20" t="n">
         <v>140.96</v>
@@ -5758,52 +5758,52 @@
         <v>140.96</v>
       </c>
       <c r="J20" t="n">
-        <v>599.7771454756521</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K20" t="n">
-        <v>2049.12665539136</v>
+        <v>1765.421978263786</v>
       </c>
       <c r="L20" t="n">
-        <v>3793.50665539136</v>
+        <v>2748.266680678892</v>
       </c>
       <c r="M20" t="n">
-        <v>4275.685854904863</v>
+        <v>4280.114215287224</v>
       </c>
       <c r="N20" t="n">
-        <v>4840.728918777535</v>
+        <v>4845.157279159896</v>
       </c>
       <c r="O20" t="n">
-        <v>5750.883801718279</v>
+        <v>5755.31216210064</v>
       </c>
       <c r="P20" t="n">
-        <v>6586.751129815692</v>
+        <v>6591.179490198054</v>
       </c>
       <c r="Q20" t="n">
-        <v>7048</v>
+        <v>7048.000000000276</v>
       </c>
       <c r="R20" t="n">
-        <v>7048</v>
+        <v>7048.000000000276</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183177</v>
+        <v>6683.344625183453</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464005</v>
+        <v>6116.71339446428</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542916</v>
+        <v>5461.408922543193</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818852</v>
+        <v>4825.195766819128</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908803</v>
+        <v>4180.37407390908</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665705</v>
+        <v>3582.109595665981</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430547</v>
+        <v>3065.627340430823</v>
       </c>
     </row>
     <row r="21">
@@ -5922,34 +5922,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L22" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M22" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U22" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V22" t="n">
         <v>140.96</v>
@@ -5971,76 +5971,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003233303</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
       </c>
       <c r="I23" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J23" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K23" t="n">
-        <v>1415.008586083262</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L23" t="n">
-        <v>2963.709898714192</v>
+        <v>3083.800289043491</v>
       </c>
       <c r="M23" t="n">
-        <v>3445.889098227694</v>
+        <v>3565.979488556994</v>
       </c>
       <c r="N23" t="n">
-        <v>4010.932162100366</v>
+        <v>4131.022552429667</v>
       </c>
       <c r="O23" t="n">
-        <v>5755.312162100367</v>
+        <v>5041.17743537041</v>
       </c>
       <c r="P23" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000002</v>
+        <v>7048</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="24">
@@ -6098,7 +6098,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R24" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S24" t="n">
         <v>5159.222422432123</v>
@@ -6159,10 +6159,10 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M25" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="N25" t="n">
         <v>140.96</v>
@@ -6208,46 +6208,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G26" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H26" t="n">
         <v>140.96</v>
       </c>
       <c r="I26" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J26" t="n">
-        <v>599.7771454756521</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K26" t="n">
-        <v>2049.12665539136</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L26" t="n">
-        <v>3793.50665539136</v>
+        <v>2758.60299862014</v>
       </c>
       <c r="M26" t="n">
-        <v>4275.685854904863</v>
+        <v>3240.782198133642</v>
       </c>
       <c r="N26" t="n">
-        <v>4840.728918777535</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O26" t="n">
-        <v>5750.883801718279</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P26" t="n">
         <v>6591.179490197778</v>
@@ -6277,7 +6277,7 @@
         <v>3582.109595665705</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="27">
@@ -6466,25 +6466,25 @@
         <v>140.96</v>
       </c>
       <c r="I29" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J29" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K29" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L29" t="n">
-        <v>2257.013012360075</v>
+        <v>3042.307675747712</v>
       </c>
       <c r="M29" t="n">
-        <v>3418.242061939566</v>
+        <v>3524.486875261216</v>
       </c>
       <c r="N29" t="n">
-        <v>3983.285125812238</v>
+        <v>4089.529939133888</v>
       </c>
       <c r="O29" t="n">
-        <v>4893.440008752982</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P29" t="n">
         <v>6591.179490197778</v>
@@ -6524,25 +6524,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034234797</v>
+        <v>2287.112034234955</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.36464792635</v>
+        <v>1922.364647926508</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.91243893893</v>
+        <v>1570.912438939088</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007401802</v>
+        <v>1224.77900740196</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959495592</v>
+        <v>881.7120959497172</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327445247</v>
+        <v>555.8565327446827</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876545298</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I30" t="n">
         <v>140.96</v>
@@ -6572,28 +6572,28 @@
         <v>5925.707874250955</v>
       </c>
       <c r="R30" t="n">
-        <v>5571.538498246874</v>
+        <v>5571.538498247032</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.22242242991</v>
+        <v>5159.222422430068</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674068562</v>
+        <v>4762.56467406872</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619041277</v>
+        <v>4358.520619041436</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975413637</v>
+        <v>3939.822975413796</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427020029</v>
+        <v>3503.082427020187</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649802624</v>
+        <v>3078.978649802782</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.55300054406</v>
+        <v>2675.553000544218</v>
       </c>
     </row>
     <row r="31">
@@ -6633,37 +6633,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V31" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W31" t="n">
         <v>140.96</v>
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C32" t="n">
         <v>2126.146990020859</v>
@@ -6733,25 +6733,25 @@
         <v>7048</v>
       </c>
       <c r="S32" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183177</v>
       </c>
       <c r="T32" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464005</v>
       </c>
       <c r="U32" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542916</v>
       </c>
       <c r="V32" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W32" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X32" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y32" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="33">
@@ -6809,19 +6809,19 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R33" t="n">
-        <v>5569.989306372909</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S33" t="n">
-        <v>5157.673230555786</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T33" t="n">
-        <v>4761.01548219428</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U33" t="n">
-        <v>4356.971427166837</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V33" t="n">
-        <v>3938.273783539039</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W33" t="n">
         <v>3503.082427021609</v>
@@ -6870,34 +6870,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U34" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V34" t="n">
         <v>140.96</v>
@@ -6919,22 +6919,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546128</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048154</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351336</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859071671</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361342853</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003233303</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H35" t="n">
         <v>140.96</v>
@@ -6943,22 +6943,22 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J35" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K35" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L35" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M35" t="n">
-        <v>3240.782198133642</v>
+        <v>3864.448844008177</v>
       </c>
       <c r="N35" t="n">
-        <v>3894.048524337361</v>
+        <v>4429.491907880849</v>
       </c>
       <c r="O35" t="n">
-        <v>5638.428524337362</v>
+        <v>5339.646790821593</v>
       </c>
       <c r="P35" t="n">
         <v>6474.295852434775</v>
@@ -6985,10 +6985,10 @@
         <v>4180.374073908803</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595665705</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340430547</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="36">
@@ -7107,28 +7107,28 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T37" t="n">
         <v>140.96</v>
@@ -7183,13 +7183,13 @@
         <v>599.7771454756521</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043491</v>
+        <v>1713.790319599031</v>
       </c>
       <c r="L38" t="n">
-        <v>2595.354589746543</v>
+        <v>2631.383042915614</v>
       </c>
       <c r="M38" t="n">
-        <v>3077.533789260046</v>
+        <v>4163.230577523946</v>
       </c>
       <c r="N38" t="n">
         <v>4728.273641396618</v>
@@ -7344,37 +7344,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T40" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U40" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="V40" t="n">
-        <v>155.5035375626275</v>
+        <v>140.96</v>
       </c>
       <c r="W40" t="n">
         <v>140.96</v>
@@ -7393,19 +7393,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C41" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D41" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342853</v>
       </c>
       <c r="G41" t="n">
         <v>492.3327682960356</v>
@@ -7414,31 +7414,31 @@
         <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J41" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695947</v>
       </c>
       <c r="K41" t="n">
-        <v>1415.008586083262</v>
+        <v>1830.673957362034</v>
       </c>
       <c r="L41" t="n">
-        <v>2332.601309399844</v>
+        <v>2748.266680678617</v>
       </c>
       <c r="M41" t="n">
-        <v>3301.358424176563</v>
+        <v>4280.114215286949</v>
       </c>
       <c r="N41" t="n">
-        <v>3866.401488049235</v>
+        <v>4845.157279159621</v>
       </c>
       <c r="O41" t="n">
-        <v>4776.556370989979</v>
+        <v>5755.312162100365</v>
       </c>
       <c r="P41" t="n">
-        <v>6474.295852434775</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q41" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R41" t="n">
         <v>7048</v>
@@ -7453,16 +7453,16 @@
         <v>5461.408922542916</v>
       </c>
       <c r="V41" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818852</v>
       </c>
       <c r="W41" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908803</v>
       </c>
       <c r="X41" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665705</v>
       </c>
       <c r="Y41" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430547</v>
       </c>
     </row>
     <row r="42">
@@ -7581,37 +7581,37 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V43" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
         <v>140.96</v>
@@ -7630,19 +7630,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546128</v>
       </c>
       <c r="C44" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048154</v>
       </c>
       <c r="D44" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351336</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071671</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342854</v>
       </c>
       <c r="G44" t="n">
         <v>492.3327682960356</v>
@@ -7651,31 +7651,31 @@
         <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>1101.367131735718</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>1841.010275303557</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>3071.357825473565</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3553.537024987068</v>
+        <v>2739.192211873577</v>
       </c>
       <c r="N44" t="n">
-        <v>4118.58008885974</v>
+        <v>3983.285125812238</v>
       </c>
       <c r="O44" t="n">
-        <v>5028.734971800483</v>
+        <v>4893.440008752982</v>
       </c>
       <c r="P44" t="n">
-        <v>5864.602299897897</v>
+        <v>6591.179490197778</v>
       </c>
       <c r="Q44" t="n">
-        <v>6931.116362236997</v>
+        <v>7048</v>
       </c>
       <c r="R44" t="n">
         <v>7048</v>
@@ -7818,34 +7818,34 @@
         <v>307.8416045893196</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893196</v>
+        <v>275.6639043471516</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893196</v>
+        <v>166.9289267754419</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>307.8416045893196</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
         <v>140.96</v>
@@ -7981,13 +7981,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>114.3520667231144</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8002,10 +8002,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>409.307018025463</v>
       </c>
       <c r="R2" t="n">
         <v>176.4768357656695</v>
@@ -8221,13 +8221,13 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J5" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>409.3070180254626</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8236,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>822.5705182964546</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>615.8520732695737</v>
       </c>
       <c r="R5" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8464,19 +8464,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>721.348208818136</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>713.8352387415302</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -8692,34 +8692,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>763.2599394199325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>595.7709581728407</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>713.8352387415302</v>
+        <v>609.5571242689075</v>
       </c>
       <c r="O14" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>383.4716344542439</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>940.6347988651446</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>176.4768357656695</v>
@@ -9406,16 +9406,16 @@
         <v>44.29520053209296</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K20" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>835.138663316583</v>
+        <v>65.91108999850826</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.473091295036454</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>176.4768357656695</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>637.4834235498456</v>
+        <v>835.1386633165826</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>721.3482088181354</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>716.8751175230994</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>835.138663316583</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1049.830320356875</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.473091295035942</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10114,28 +10114,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>685.9089394605945</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>763.2599394199326</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10591,7 +10591,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J35" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N35" t="n">
-        <v>89.11440639499676</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>842.6516333931879</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>301.7997308240085</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>378.1515460156963</v>
       </c>
       <c r="L38" t="n">
-        <v>341.7591690772406</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N38" t="n">
-        <v>1096.663422488788</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>65.91108999823018</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>491.4928437002175</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,13 +11083,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,34 +11299,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J44" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>315.9139665186112</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>685.9089394605946</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q44" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23281,7 +23281,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23332,7 +23332,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.388344292978161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23451,13 +23451,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O13" t="n">
         <v>268.0582198167198</v>
@@ -23484,7 +23484,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W13" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X13" t="n">
         <v>247.4436454301076</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S15" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23688,13 +23688,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O16" t="n">
         <v>268.0582198167198</v>
@@ -23721,7 +23721,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W16" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X16" t="n">
         <v>247.4436454301076</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.388344292977649</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23803,7 +23803,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23864,10 +23864,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S18" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23925,13 +23925,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O19" t="n">
         <v>268.0582198167198</v>
@@ -23949,7 +23949,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T19" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U19" t="n">
         <v>150.8146863564251</v>
@@ -23989,10 +23989,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.388344292704403</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24162,13 +24162,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O22" t="n">
         <v>268.0582198167198</v>
@@ -24192,7 +24192,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V22" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W22" t="n">
         <v>226.3728098387097</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24338,10 +24338,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24399,13 +24399,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>107.6476277959926</v>
       </c>
       <c r="N25" t="n">
-        <v>2.808139187274691</v>
+        <v>34.66406242702104</v>
       </c>
       <c r="O25" t="n">
         <v>268.0582198167198</v>
@@ -24466,7 +24466,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24517,7 +24517,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>1.388344292978161</v>
       </c>
     </row>
     <row r="27">
@@ -24812,7 +24812,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.533699953843268</v>
+        <v>1.533699953999928</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24873,13 +24873,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O31" t="n">
         <v>268.0582198167198</v>
@@ -24906,7 +24906,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W31" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X31" t="n">
         <v>247.4436454301076</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.533699957572821</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25110,13 +25110,13 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O34" t="n">
         <v>268.0582198167198</v>
@@ -25140,7 +25140,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V34" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
         <v>226.3728098387097</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25225,7 +25225,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.38834429297799</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25347,16 +25347,16 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O37" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P37" t="n">
         <v>368.8061924102448</v>
@@ -25371,7 +25371,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
         <v>150.8146863564251</v>
@@ -25584,13 +25584,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O40" t="n">
         <v>268.0582198167198</v>
@@ -25611,13 +25611,13 @@
         <v>198.7676812603561</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V40" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W40" t="n">
-        <v>211.9747076517084</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X40" t="n">
         <v>247.4436454301076</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.388344292978104</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25821,13 +25821,13 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O43" t="n">
         <v>268.0582198167198</v>
@@ -25854,7 +25854,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W43" t="n">
-        <v>61.16002129528329</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X43" t="n">
         <v>247.4436454301076</v>
@@ -25870,7 +25870,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.388344292978275</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26058,13 +26058,13 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>31.85592323974635</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>142.3116902230136</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26088,7 +26088,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
-        <v>33.9575216727898</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W46" t="n">
         <v>226.3728098387097</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15184.78357961383</v>
+        <v>1253038.088453473</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30192.00001986755</v>
+        <v>2480930.702777752</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45199.21646012126</v>
+        <v>3708823.317102033</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62279.94460265019</v>
+        <v>4808665.190726485</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79360.67274517911</v>
+        <v>5908507.064350937</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96441.40088770803</v>
+        <v>7008348.937975383</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113522.129030237</v>
+        <v>8108190.811599852</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130602.8571727659</v>
+        <v>9208032.685224293</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147683.5853152948</v>
+        <v>10307874.55884874</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164764.3134578219</v>
+        <v>11407716.4324735</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181845.0416003508</v>
+        <v>12507558.30609794</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198925.7697428798</v>
+        <v>13607400.17972239</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>216006.4978854088</v>
+        <v>14707242.05334686</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>233087.226027938</v>
+        <v>15807083.92697132</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250167.9541704671</v>
+        <v>16906925.80059578</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577604</v>
+        <v>976017.2062577605</v>
       </c>
       <c r="C2" t="n">
-        <v>976017.2062577606</v>
+        <v>976017.2062577603</v>
       </c>
       <c r="D2" t="n">
         <v>976017.2062577605</v>
       </c>
       <c r="E2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="F2" t="n">
         <v>874233.284163025</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>874233.2841630249</v>
       </c>
-      <c r="G2" t="n">
-        <v>874233.284163025</v>
-      </c>
       <c r="H2" t="n">
+        <v>874233.2841630415</v>
+      </c>
+      <c r="I2" t="n">
         <v>874233.2841630249</v>
-      </c>
-      <c r="I2" t="n">
-        <v>874233.284163025</v>
       </c>
       <c r="J2" t="n">
         <v>874233.2841630247</v>
       </c>
       <c r="K2" t="n">
-        <v>874233.2841632827</v>
+        <v>874233.2841632775</v>
       </c>
       <c r="L2" t="n">
-        <v>874233.284163025</v>
+        <v>874233.2841630247</v>
       </c>
       <c r="M2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="N2" t="n">
+        <v>874233.284163025</v>
+      </c>
+      <c r="O2" t="n">
         <v>874233.2841630247</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>874233.284163025</v>
-      </c>
-      <c r="P2" t="n">
-        <v>874233.2841630249</v>
       </c>
     </row>
     <row r="3">
@@ -26432,25 +26432,25 @@
         <v>101044.2291618175</v>
       </c>
       <c r="E4" t="n">
+        <v>26356.19966309947</v>
+      </c>
+      <c r="F4" t="n">
         <v>26356.19966309946</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>26356.19966309947</v>
+      </c>
+      <c r="H4" t="n">
+        <v>26356.19966310171</v>
+      </c>
+      <c r="I4" t="n">
         <v>26356.19966309945</v>
       </c>
-      <c r="G4" t="n">
-        <v>26356.19966309946</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>26356.19966309947</v>
       </c>
-      <c r="I4" t="n">
-        <v>26356.19966309948</v>
-      </c>
-      <c r="J4" t="n">
-        <v>26356.19966309946</v>
-      </c>
       <c r="K4" t="n">
-        <v>26356.19966328368</v>
+        <v>26356.19966328004</v>
       </c>
       <c r="L4" t="n">
         <v>26356.19966309947</v>
@@ -26462,10 +26462,10 @@
         <v>26356.19966309947</v>
       </c>
       <c r="O4" t="n">
-        <v>26356.19966309946</v>
+        <v>26356.19966309947</v>
       </c>
       <c r="P4" t="n">
-        <v>26356.19966309947</v>
+        <v>26356.19966309945</v>
       </c>
     </row>
     <row r="5">
@@ -26530,7 +26530,7 @@
         <v>-1342937.334628471</v>
       </c>
       <c r="C6" t="n">
-        <v>702063.6164260102</v>
+        <v>702063.6164260098</v>
       </c>
       <c r="D6" t="n">
         <v>702365.9770959431</v>
@@ -26545,28 +26545,28 @@
         <v>708897.6844999255</v>
       </c>
       <c r="H6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999398</v>
       </c>
       <c r="I6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="J6" t="n">
-        <v>88673.68449992529</v>
+        <v>88673.68449992526</v>
       </c>
       <c r="K6" t="n">
-        <v>708897.684499999</v>
+        <v>708897.6844999974</v>
       </c>
       <c r="L6" t="n">
-        <v>708897.6844999255</v>
+        <v>708897.6844999252</v>
       </c>
       <c r="M6" t="n">
         <v>708897.6844999255</v>
       </c>
       <c r="N6" t="n">
+        <v>708897.6844999255</v>
+      </c>
+      <c r="O6" t="n">
         <v>708897.6844999252</v>
-      </c>
-      <c r="O6" t="n">
-        <v>708897.6844999255</v>
       </c>
       <c r="P6" t="n">
         <v>708897.6844999255</v>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27144,22 +27144,22 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.38834429297799</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292978218</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27702,13 +27702,13 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N4" t="n">
-        <v>319.1859637116848</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O4" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P4" t="n">
-        <v>368.8061924102448</v>
+        <v>400</v>
       </c>
       <c r="Q4" t="n">
         <v>400</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.388344292978047</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27760,7 +27760,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.388344292978218</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27842,10 +27842,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="I6" t="n">
-        <v>1.533699957573035</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27930,7 +27930,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>19.2232557977035</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>31.85592323974635</v>
@@ -27942,10 +27942,10 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
+        <v>388.0294482079483</v>
+      </c>
+      <c r="P7" t="n">
         <v>400</v>
-      </c>
-      <c r="P7" t="n">
-        <v>368.8061924102448</v>
       </c>
       <c r="Q7" t="n">
         <v>400</v>
@@ -28170,7 +28170,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>151.8271516309749</v>
+        <v>31.85592323974635</v>
       </c>
       <c r="M10" t="n">
         <v>107.6476277959926</v>
@@ -28179,7 +28179,7 @@
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>268.0582198167198</v>
+        <v>388.0294482079483</v>
       </c>
       <c r="P10" t="n">
         <v>400</v>
@@ -29741,7 +29741,7 @@
         <v>1.564330887049437e-10</v>
       </c>
       <c r="I30" t="n">
-        <v>1.564330887049437e-10</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>1.564330887049437e-10</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.05686619102138</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34846,10 +34846,10 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>870.7418764115454</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34998,13 +34998,13 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>151.1650359809837</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35065,13 +35065,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K5" t="n">
-        <v>1463.989403955261</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L5" t="n">
-        <v>1336.16835470888</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M5" t="n">
         <v>487.0496964782857</v>
@@ -35080,16 +35080,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1741.918884903267</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q5" t="n">
-        <v>461.4348583860824</v>
+        <v>1077.286931655656</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35226,7 +35226,7 @@
         <v>150.9965757542561</v>
       </c>
       <c r="K7" t="n">
-        <v>36.79395740639646</v>
+        <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -35238,10 +35238,10 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>119.9712283912285</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>31.19380758975518</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35308,19 +35308,19 @@
         <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>926.8613366834174</v>
+        <v>1762</v>
       </c>
       <c r="M8" t="n">
-        <v>487.0496964782857</v>
+        <v>1208.397905296422</v>
       </c>
       <c r="N8" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O8" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P8" t="n">
-        <v>1558.14567116316</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q8" t="n">
         <v>461.4348583860824</v>
@@ -35466,16 +35466,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>119.9712283912285</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>31.19380758975518</v>
@@ -35536,34 +35536,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K11" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M11" t="n">
-        <v>487.0496964782857</v>
+        <v>1250.309635898218</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O11" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P11" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q11" t="n">
-        <v>1057.205816558923</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R11" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35773,28 +35773,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N14" t="n">
-        <v>1284.585808309886</v>
+        <v>1180.307693837263</v>
       </c>
       <c r="O14" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36010,22 +36010,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.1142864321608</v>
+        <v>1130.585920886405</v>
       </c>
       <c r="L17" t="n">
-        <v>926.8613366834174</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N17" t="n">
-        <v>1511.3853684335</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O17" t="n">
         <v>919.3483666068121</v>
@@ -36034,7 +36034,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36250,16 +36250,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K20" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L20" t="n">
-        <v>1762</v>
+        <v>992.7724266819255</v>
       </c>
       <c r="M20" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N20" t="n">
         <v>570.7505695683558</v>
@@ -36271,7 +36271,7 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q20" t="n">
-        <v>465.9079496811189</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36484,16 +36484,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L23" t="n">
-        <v>1564.344760233263</v>
+        <v>1762</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
@@ -36502,10 +36502,10 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O23" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P23" t="n">
-        <v>844.3104324216301</v>
+        <v>1565.658641239766</v>
       </c>
       <c r="Q23" t="n">
         <v>461.4348583860824</v>
@@ -36721,28 +36721,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1463.989403955261</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>1762</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N26" t="n">
-        <v>570.7505695683558</v>
+        <v>1620.580889925231</v>
       </c>
       <c r="O26" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P26" t="n">
-        <v>848.7835237166661</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q26" t="n">
         <v>461.4348583860824</v>
@@ -36958,28 +36958,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L29" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M29" t="n">
-        <v>1172.95863593888</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O29" t="n">
-        <v>919.3483666068121</v>
+        <v>1682.608306026744</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
         <v>461.4348583860824</v>
@@ -37435,7 +37435,7 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J35" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K35" t="n">
         <v>747.114286432161</v>
@@ -37444,16 +37444,16 @@
         <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N35" t="n">
-        <v>659.8649759633525</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O35" t="n">
-        <v>1762</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1146.110163245639</v>
       </c>
       <c r="Q35" t="n">
         <v>461.4348583860824</v>
@@ -37675,16 +37675,16 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321608</v>
+        <v>1125.265832447857</v>
       </c>
       <c r="L38" t="n">
-        <v>1268.620505760658</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M38" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N38" t="n">
-        <v>1667.413992057144</v>
+        <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
         <v>919.3483666068121</v>
@@ -37906,19 +37906,19 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>747.114286432161</v>
+        <v>813.0253764303909</v>
       </c>
       <c r="L41" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M41" t="n">
-        <v>978.542540178503</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N41" t="n">
         <v>570.7505695683558</v>
@@ -37927,13 +37927,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P41" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38143,34 +38143,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>1242.775303202028</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N44" t="n">
-        <v>570.7505695683558</v>
+        <v>1256.65950902895</v>
       </c>
       <c r="O44" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P44" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q44" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R44" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
